--- a/krs.xlsx
+++ b/krs.xlsx
@@ -1,25 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adamm\Documents\Adam\krs\API_MinSpr-main\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7415A94E-5011-4BDB-843B-68A2464E0ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="576" yWindow="144" windowWidth="22008" windowHeight="9240"/>
+    <workbookView xWindow="21480" yWindow="-13725" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="292">
-  <si>
-    <t>nr KRS</t>
-  </si>
   <si>
     <t>Nazwa</t>
   </si>
@@ -939,11 +953,14 @@
 MARCIN SOSNA SKARBNIK
 PIOTR DOMŻALSKI CZŁONEK ZARZĄDU</t>
   </si>
+  <si>
+    <t>KRS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-##\-##;\(###\)\ ###\-##\-##"/>
   </numFmts>
@@ -1140,18 +1157,26 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperłącze" xfId="2" builtinId="8"/>
-    <cellStyle name="my 1" xfId="1"/>
+    <cellStyle name="my 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Pakiet Office 2007–2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1189,7 +1214,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Pakiet Office 2007–2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1223,6 +1248,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1257,9 +1283,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Pakiet Office 2007–2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1432,77 +1459,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.69921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="52.09765625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="26.296875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="14.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="52.125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="26.25" style="13" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="35" customWidth="1"/>
-    <col min="5" max="5" width="11.69921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.19921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="55.19921875" style="13" customWidth="1"/>
-    <col min="9" max="9" width="18.796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.8984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.796875" style="5"/>
+    <col min="5" max="5" width="11.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.25" style="13" customWidth="1"/>
+    <col min="9" max="9" width="18.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.75" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="9" customFormat="1">
       <c r="A1" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D2" s="4">
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -1510,28 +1537,28 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="41.4" customHeight="1">
+    <row r="3" spans="1:10" ht="41.45" customHeight="1">
       <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>3</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="4">
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I3" s="12">
         <v>45483</v>
@@ -1539,224 +1566,224 @@
     </row>
     <row r="4" spans="1:10" ht="69.599999999999994" customHeight="1">
       <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="35">
         <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="18"/>
       <c r="H4" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I4" s="12">
         <v>45483</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="25" customFormat="1" ht="66">
+    <row r="5" spans="1:10" s="25" customFormat="1" ht="63.75">
       <c r="A5" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="D5" s="33">
         <v>44</v>
       </c>
       <c r="E5" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I5" s="15">
         <v>45504</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="27.6">
+    <row r="6" spans="1:10" ht="28.5">
       <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I6" s="12">
         <v>45483</v>
       </c>
       <c r="J6" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="97.15" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="97.2" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>139</v>
       </c>
       <c r="I7" s="12">
         <v>45484</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="8" customFormat="1" ht="47.4" customHeight="1">
+    <row r="8" spans="1:10" s="8" customFormat="1" ht="47.45" customHeight="1">
       <c r="A8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="D8" s="35">
         <v>4</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="G8" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>141</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>142</v>
       </c>
       <c r="I8" s="15">
         <v>45484</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="8" customFormat="1" ht="49.8" customHeight="1">
+    <row r="9" spans="1:10" s="8" customFormat="1" ht="49.9" customHeight="1">
       <c r="A9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="E9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="G9" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>143</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>144</v>
       </c>
       <c r="I9" s="15">
         <v>45484</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="8" customFormat="1" ht="50.4" customHeight="1">
+    <row r="10" spans="1:10" s="8" customFormat="1" ht="50.45" customHeight="1">
       <c r="A10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="C10" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="35">
         <v>25</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>57</v>
-      </c>
       <c r="H10" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I10" s="15">
         <v>45489</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="8" customFormat="1" ht="69">
+    <row r="11" spans="1:10" s="8" customFormat="1" ht="71.25">
       <c r="A11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="D11" s="35">
         <v>49</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="H11" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I11" s="15">
         <v>45492</v>
@@ -1764,112 +1791,112 @@
     </row>
     <row r="12" spans="1:10" s="8" customFormat="1" ht="75" customHeight="1">
       <c r="A12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="D12" s="35">
         <v>21</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I12" s="15">
         <v>45484</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="8" customFormat="1" ht="82.8">
+    <row r="13" spans="1:10" s="8" customFormat="1" ht="99.75">
       <c r="A13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D13" s="35">
         <v>32</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="H13" s="30" t="s">
         <v>150</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>151</v>
       </c>
       <c r="I13" s="15">
         <v>45484</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="8" customFormat="1" ht="27.6">
+    <row r="14" spans="1:10" s="8" customFormat="1" ht="28.5">
       <c r="A14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="E14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="G14" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="30" t="s">
         <v>152</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>153</v>
       </c>
       <c r="I14" s="15">
         <v>45485</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="8" customFormat="1" ht="55.2">
+    <row r="15" spans="1:10" s="8" customFormat="1" ht="57">
       <c r="A15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="35">
         <v>2</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I15" s="15">
         <v>45485</v>
@@ -1877,193 +1904,193 @@
     </row>
     <row r="16" spans="1:10" s="8" customFormat="1" ht="78.599999999999994" customHeight="1">
       <c r="A16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="E16" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="G16" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>155</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>156</v>
       </c>
       <c r="I16" s="15">
         <v>45491</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="8" customFormat="1" ht="55.2">
+    <row r="17" spans="1:10" s="8" customFormat="1" ht="57">
       <c r="A17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" s="35">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I17" s="15">
         <v>45485</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="8" customFormat="1" ht="41.4">
+    <row r="18" spans="1:10" s="8" customFormat="1" ht="42.75">
       <c r="A18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="E18" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="H18" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I18" s="15">
         <v>45484</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="8" customFormat="1" ht="55.2">
+    <row r="19" spans="1:10" s="8" customFormat="1" ht="57">
       <c r="A19" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="E19" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="G19" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="H19" s="14" t="s">
         <v>160</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>161</v>
       </c>
       <c r="I19" s="15">
         <v>45484</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="8" customFormat="1" ht="41.4">
+    <row r="20" spans="1:10" s="8" customFormat="1" ht="42.75">
       <c r="A20" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="D20" s="35">
         <v>13</v>
       </c>
       <c r="E20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="H20" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I20" s="15">
         <v>45491</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="8" customFormat="1" ht="41.4">
+    <row r="21" spans="1:10" s="8" customFormat="1" ht="42.75">
       <c r="A21" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="D21" s="35">
         <v>20</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="H21" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I21" s="15">
         <v>45491</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="8" customFormat="1" ht="27.6">
+    <row r="22" spans="1:10" s="8" customFormat="1" ht="28.5">
       <c r="A22" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D22" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="F22" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I22" s="15">
         <v>45497</v>
@@ -2071,77 +2098,77 @@
     </row>
     <row r="23" spans="1:10" s="8" customFormat="1">
       <c r="A23" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="D23" s="35">
         <v>23</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>125</v>
-      </c>
       <c r="H23" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I23" s="15">
         <v>45484</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="8" customFormat="1" ht="43.8" customHeight="1">
+    <row r="24" spans="1:10" s="8" customFormat="1" ht="43.9" customHeight="1">
       <c r="A24" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="D24" s="35">
         <v>18</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I24" s="15">
         <v>45484</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="69">
+    <row r="25" spans="1:10" ht="71.25">
       <c r="A25" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="D25" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="E25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" s="14" t="s">
         <v>169</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>170</v>
       </c>
       <c r="I25" s="11">
         <v>45484</v>
@@ -2149,136 +2176,136 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>172</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>173</v>
       </c>
       <c r="D26" s="35">
         <v>47</v>
       </c>
       <c r="E26" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="13" t="s">
+      <c r="H26" s="13" t="s">
         <v>175</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>176</v>
       </c>
       <c r="I26" s="11">
         <v>45485</v>
       </c>
       <c r="J26" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="114">
+      <c r="A27" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="110.4">
-      <c r="A27" s="4" t="s">
+      <c r="B27" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="C27" s="13" t="s">
         <v>179</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>180</v>
       </c>
       <c r="D27" s="35">
         <v>300</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I27" s="11">
         <v>45485</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="41.4">
+    <row r="28" spans="1:10" ht="42.75">
       <c r="A28" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>190</v>
-      </c>
       <c r="C28" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D28" s="35">
         <v>12</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G28" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="H28" s="14" t="s">
         <v>194</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>195</v>
       </c>
       <c r="I28" s="11">
         <v>45484</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="25" customFormat="1" ht="27.6">
+    <row r="29" spans="1:10" s="25" customFormat="1" ht="28.5">
       <c r="A29" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="F29" s="14" t="s">
         <v>197</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>198</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I29" s="32">
         <v>45485</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="55.2">
+    <row r="30" spans="1:10" ht="57">
       <c r="A30" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="C30" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="D30" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="E30" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="13" t="s">
         <v>206</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>207</v>
       </c>
       <c r="G30" s="34" t="str">
         <f>CONCATENATE("BABSKIEJIUJITSU@GMAIL.COM"&amp;CHAR(10), "wicinska.nina@gmail.com")</f>
@@ -2286,109 +2313,109 @@
 wicinska.nina@gmail.com</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I30" s="11">
         <v>45485</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="27.6">
+    <row r="31" spans="1:10" ht="28.5">
       <c r="A31" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B31" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="D31" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="D31" s="35" t="s">
+      <c r="E31" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="H31" s="14" t="s">
         <v>215</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>216</v>
       </c>
       <c r="I31" s="11">
         <v>45485</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="27.6">
+    <row r="32" spans="1:10" ht="28.5">
       <c r="A32" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="C32" s="13" t="s">
         <v>218</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>219</v>
       </c>
       <c r="D32" s="35">
         <v>1</v>
       </c>
       <c r="E32" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H32" s="14" t="s">
         <v>220</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>221</v>
       </c>
       <c r="I32" s="11">
         <v>45488</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="82.8">
+    <row r="33" spans="1:10" ht="85.5">
       <c r="A33" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="C33" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="D33" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="E33" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F33" s="13" t="s">
         <v>225</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>226</v>
       </c>
       <c r="G33" s="31"/>
       <c r="H33" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I33" s="11">
         <v>45488</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="96.6">
+    <row r="34" spans="1:10" ht="99.75">
       <c r="A34" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="C34" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="D34" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="E34" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="13" t="s">
         <v>233</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>234</v>
       </c>
       <c r="G34" s="34" t="str">
         <f>CONCATENATE(LOWER("ALTERNATYWADLA MYSŁOWIC@GMAIL.COM")&amp;CHAR(10),
@@ -2397,62 +2424,62 @@
 gabrielastyrkowicz@gmail.com</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I34" s="11">
         <v>45511</v>
       </c>
       <c r="J34" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="C35" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="D35" s="35" t="s">
         <v>243</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="E35" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F35" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="H35" s="13" t="s">
         <v>246</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>247</v>
       </c>
       <c r="I35" s="11">
         <v>45496</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="27.6">
+    <row r="36" spans="1:10" ht="28.5">
       <c r="A36" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B36" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="C36" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F36" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="D36" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>250</v>
-      </c>
       <c r="H36" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I36" s="11">
         <v>45492</v>
@@ -2460,55 +2487,55 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B37" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="C37" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="D37" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="E37" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="H37" s="14" t="s">
         <v>260</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>261</v>
       </c>
       <c r="I37" s="11">
         <v>45485</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="55.2">
+    <row r="38" spans="1:10" ht="57">
       <c r="A38" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B38" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="C38" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="D38" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="E38" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F38" s="13" t="s">
         <v>265</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>266</v>
       </c>
       <c r="G38" s="13" t="str">
         <f>LOWER("SBiK@POCZTA.ONET.PL")</f>
         <v>sbik@poczta.onet.pl</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I38" s="11">
         <v>45488</v>
@@ -2516,51 +2543,51 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B39" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="C39" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="D39" s="35" t="s">
         <v>272</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="E39" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F39" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="H39" s="13" t="s">
         <v>275</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>276</v>
       </c>
       <c r="I39" s="11">
         <v>45491</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="69">
+    <row r="40" spans="1:10" ht="71.25">
       <c r="A40" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B40" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="C40" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F40" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="C40" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="D40" s="35" t="s">
+      <c r="H40" s="14" t="s">
         <v>290</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="H40" s="14" t="s">
-        <v>291</v>
       </c>
       <c r="I40" s="11">
         <v>45488</v>
@@ -2568,16 +2595,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1"/>
-    <hyperlink ref="G10" r:id="rId2"/>
-    <hyperlink ref="J6" r:id="rId3"/>
-    <hyperlink ref="G8" r:id="rId4"/>
-    <hyperlink ref="G12" r:id="rId5"/>
-    <hyperlink ref="G13" r:id="rId6" display="FEDCZYSZYN.ZOFIA@GMAIL.COM,"/>
-    <hyperlink ref="J26" r:id="rId7"/>
-    <hyperlink ref="G28" r:id="rId8"/>
-    <hyperlink ref="G30" r:id="rId9" display="BABSKIEJIUJITSU@GMAIL.COM,"/>
-    <hyperlink ref="J34" r:id="rId10"/>
+    <hyperlink ref="G6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G13" r:id="rId6" display="FEDCZYSZYN.ZOFIA@GMAIL.COM," xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J26" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G28" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G30" r:id="rId9" display="BABSKIEJIUJITSU@GMAIL.COM," xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J34" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
@@ -2585,27 +2612,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D11:K57"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="7" max="7" width="16.296875" customWidth="1"/>
-    <col min="8" max="8" width="25.296875" style="20" customWidth="1"/>
-    <col min="9" max="9" width="42.09765625" customWidth="1"/>
+    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="8" max="8" width="25.25" style="20" customWidth="1"/>
+    <col min="9" max="9" width="42.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="4:9" ht="55.2">
+    <row r="11" spans="4:9" ht="57">
       <c r="G11" s="18" t="str">
         <f>"ktarnawska@pepco.eu"&amp;TEXT(" pani Karolina Tarnawska tam tam urzęduje","")</f>
         <v>ktarnawska@pepco.eu pani Karolina Tarnawska tam tam urzęduje</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I11" t="str">
         <f>CONCATENATE(G11,", ",H11)</f>
@@ -2639,33 +2666,33 @@
     </row>
     <row r="16" spans="4:9">
       <c r="G16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="18" spans="7:11">
       <c r="G18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="7:11">
       <c r="G19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="7:11">
       <c r="G20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="7:11">
       <c r="G21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="7:11">
       <c r="G22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I22" t="str">
         <f>CONCATENATE(G20," ",G18," ",G22)</f>
@@ -2674,7 +2701,7 @@
     </row>
     <row r="23" spans="7:11">
       <c r="G23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I23" t="str">
         <f>CONCATENATE(G25," ",G23," ",G27)</f>
@@ -2683,12 +2710,12 @@
     </row>
     <row r="24" spans="7:11">
       <c r="G24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="7:11">
       <c r="G25" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K25" t="str">
         <f>" "</f>
@@ -2697,17 +2724,17 @@
     </row>
     <row r="26" spans="7:11">
       <c r="G26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="7:11">
       <c r="G27" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="28" spans="7:11" ht="110.4">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28" spans="7:11" ht="114">
       <c r="G28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I28" s="29" t="str">
         <f>CONCATENATE(I22,","&amp;CHAR(10),I23,","&amp;CHAR(10),G30," ",G28," ",G32&amp;CHAR(10),G35," ",G33," ",G37&amp;CHAR(10),G40," ",G38," ",G42&amp;CHAR(10),G45," ",G43," ",G47&amp;CHAR(10),G50," ",G48," ",G52&amp;CHAR(10),G55," ",G53," ",G57)</f>
@@ -2724,152 +2751,152 @@
     </row>
     <row r="29" spans="7:11">
       <c r="G29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="7:11">
       <c r="G30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="7:11">
       <c r="G31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="7:11">
       <c r="G32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="7:7">
       <c r="G33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="34" spans="7:7">
       <c r="G34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="7:7">
       <c r="G35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36" spans="7:7">
       <c r="G36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="7:7">
       <c r="G37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="7:7">
       <c r="G38" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="7:7">
       <c r="G39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="7:7">
       <c r="G40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="7:7">
       <c r="G41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="7:7">
       <c r="G42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="7:7">
       <c r="G43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="7:7">
       <c r="G44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="7:7">
       <c r="G45" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="7:7">
       <c r="G46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="7:7">
       <c r="G47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="7:7">
       <c r="G48" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="7:7">
       <c r="G49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="7:7">
       <c r="G50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="7:7">
       <c r="G51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="7:7">
       <c r="G52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="7:7">
       <c r="G53" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="7:7">
       <c r="G54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="55" spans="7:7">
       <c r="G55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="7:7">
       <c r="G56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="7:7">
       <c r="G57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G11" r:id="rId1" display="ktarnawska@pepco.eu"/>
+    <hyperlink ref="G11" r:id="rId1" display="ktarnawska@pepco.eu" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2877,19 +2904,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="8" max="8" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="15" spans="8:8" ht="43.8" customHeight="1">
+    <row r="15" spans="8:8" ht="43.9" customHeight="1">
       <c r="H15" s="29" t="str">
         <f>CONCATENATE("MARIUSZ GOLLING PREZES ZARZĄDU,"&amp;CHAR(10),"ZUZANNA - SMELA WICEPREZES ZARZĄDU,"&amp;CHAR(10),"PAKUŁA PATRYK WICEPREZES ZARZĄDU")</f>
         <v>MARIUSZ GOLLING PREZES ZARZĄDU,
